--- a/Promotion Theme Register Form 2025_V3b.xlsx
+++ b/Promotion Theme Register Form 2025_V3b.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\70K6885\Desktop\request weigght3\2025document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72C78A34-948C-4DCD-BFB8-DA13E27565F0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74C1FA00-9C35-4CA5-BC88-FBF607BA43C4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -921,6 +921,9 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -939,9 +942,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -995,7 +995,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Refer!$B$5:$D$11" spid="_x0000_s1161"/>
+                  <a14:cameraTool cellRange="Refer!$B$5:$D$11" spid="_x0000_s1166"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -15841,10 +15841,10 @@
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
           <a:xfrm>
-            <a:off x="7961870" y="4041914"/>
-            <a:ext cx="783669" cy="618714"/>
-            <a:chOff x="5600057" y="4115465"/>
-            <a:chExt cx="554017" cy="448120"/>
+            <a:off x="7951297" y="4041916"/>
+            <a:ext cx="794241" cy="593866"/>
+            <a:chOff x="5592583" y="4115465"/>
+            <a:chExt cx="561491" cy="430123"/>
           </a:xfrm>
         </xdr:grpSpPr>
         <xdr:pic>
@@ -15891,8 +15891,8 @@
           </xdr:nvSpPr>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="5616006" y="4211899"/>
-              <a:ext cx="468434" cy="351686"/>
+              <a:off x="5592583" y="4193902"/>
+              <a:ext cx="544557" cy="351686"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -16053,7 +16053,7 @@
                   <a:ea typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
                   <a:cs typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
                 </a:rPr>
-                <a:t>Database OQC</a:t>
+                <a:t>Database server OQC</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -18183,15 +18183,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1071356</xdr:colOff>
+      <xdr:colOff>1010479</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>55493</xdr:rowOff>
+      <xdr:rowOff>30645</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>99391</xdr:colOff>
+      <xdr:colOff>149087</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>57978</xdr:rowOff>
+      <xdr:rowOff>33130</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -18208,8 +18208,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7796834" y="2614819"/>
-          <a:ext cx="684557" cy="383485"/>
+          <a:off x="7735957" y="2589971"/>
+          <a:ext cx="795130" cy="383485"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -18370,7 +18370,7 @@
               <a:ea typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>Database OQC</a:t>
+            <a:t>Database server OQC</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -19029,8 +19029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -19059,16 +19059,16 @@
       <c r="H1" s="17"/>
     </row>
     <row r="2" spans="1:8" ht="26.25">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
     </row>
     <row r="3" spans="1:8" s="2" customFormat="1" ht="38.25" customHeight="1">
       <c r="A3" s="3" t="s">
@@ -19083,10 +19083,10 @@
       <c r="D3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="32" t="s">
+      <c r="E3" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="33"/>
+      <c r="F3" s="36"/>
       <c r="G3" s="3" t="s">
         <v>4</v>
       </c>
@@ -19147,10 +19147,10 @@
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="8"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="36"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="39"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="24"/>
@@ -19277,7 +19277,7 @@
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
-      <c r="E20" s="38" t="s">
+      <c r="E20" s="32" t="s">
         <v>21</v>
       </c>
       <c r="F20" s="7"/>
@@ -19291,7 +19291,7 @@
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
-      <c r="E21" s="39" t="s">
+      <c r="E21" s="33" t="s">
         <v>37</v>
       </c>
       <c r="F21" s="7"/>
@@ -19409,7 +19409,7 @@
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
       <c r="D32" s="8"/>
-      <c r="E32" s="37" t="s">
+      <c r="E32" s="31" t="s">
         <v>42</v>
       </c>
       <c r="F32" s="7"/>
